--- a/dinas/public/files/template/inventory/kiba.xlsx
+++ b/dinas/public/files/template/inventory/kiba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\bogor\puskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>U P B</t>
   </si>
   <si>
-    <t xml:space="preserve">NO. KODE LOKASI </t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -207,26 +204,22 @@
   </si>
   <si>
     <t>[b.tanggal_export]</t>
+  </si>
+  <si>
+    <t>No. Kode Lokasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -242,20 +235,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
@@ -265,6 +244,38 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Ariak"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -282,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -410,115 +421,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,667 +870,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="28" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32" t="s">
+      <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="M12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="N12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="C13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="F13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="H13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="I13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" s="28" customFormat="1" ht="11.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="J15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="M15" s="32">
+        <v>12</v>
+      </c>
+      <c r="N15" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="9">
-        <v>12</v>
-      </c>
-      <c r="M15" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="J17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="L17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:J14"/>
+  <mergeCells count="20">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C13:D14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
